--- a/data/trans_bre/P3A_R1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.834226045766438</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8498459843639603</v>
+        <v>0.8498459843639589</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1873969833657683</v>
@@ -649,7 +649,7 @@
         <v>1.185139215597928</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1337144462810177</v>
+        <v>0.1337144462810174</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.614807358651026</v>
+        <v>-2.146631736932529</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.818327552375955</v>
+        <v>-1.540010997156759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.478133239112381</v>
+        <v>2.344687967640083</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.342093361112196</v>
+        <v>-4.302695881014833</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2973643809918673</v>
+        <v>-0.3683921513331574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2385248038074104</v>
+        <v>-0.2063013233131714</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3227546729182841</v>
+        <v>0.3352717192967297</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4962339885298168</v>
+        <v>-0.4824667942120929</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.929835310568717</v>
+        <v>3.827320601001857</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.130579363812271</v>
+        <v>5.011972259419841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.822985282471713</v>
+        <v>9.662169906503108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.820362410455672</v>
+        <v>5.703817542949842</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.226912253930772</v>
+        <v>1.186443374667008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.057617096598216</v>
+        <v>1.022702446218609</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.809454973917844</v>
+        <v>2.905383859091677</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.596917572712322</v>
+        <v>1.55078741033134</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-10.92263990407443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-2.631395985929114</v>
+        <v>-2.631395985929102</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1534073386227666</v>
@@ -749,7 +749,7 @@
         <v>-0.2933094375350271</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.09683173895904039</v>
+        <v>-0.09683173895904</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.143648952675612</v>
+        <v>-8.881194601361846</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.412179460547115</v>
+        <v>-6.606632183287865</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-16.53829003593587</v>
+        <v>-16.6600469017106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-9.024797955035572</v>
+        <v>-9.877919227577681</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2975484440868701</v>
+        <v>-0.2946336572130933</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2125028594254909</v>
+        <v>-0.2192906379548965</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4119323876533861</v>
+        <v>-0.4100943385434366</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2989761148235487</v>
+        <v>-0.2944304890733128</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3918493349881041</v>
+        <v>1.484910736670876</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.57072030415836</v>
+        <v>3.237542353687474</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.192006441047077</v>
+        <v>-5.45855835768088</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.727631717021489</v>
+        <v>3.412891310770477</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0268835384967568</v>
+        <v>0.05595401592681097</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1385215313147652</v>
+        <v>0.125618470754923</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1547112819100912</v>
+        <v>-0.1571251777337472</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1704449768020067</v>
+        <v>0.1650689237447268</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-13.44277294474674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-7.205908496396013</v>
+        <v>-7.205908496396008</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4915273789984972</v>
@@ -849,7 +849,7 @@
         <v>-0.2879666405845296</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1669071723705425</v>
+        <v>-0.1669071723705423</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.41852569367057</v>
+        <v>-19.93259516058248</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-27.16072355145622</v>
+        <v>-27.67425911151374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.93242634272919</v>
+        <v>-18.49079591065045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-12.79100929451612</v>
+        <v>-12.69041387223311</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6006535256660237</v>
+        <v>-0.5983532105064848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5876515994714329</v>
+        <v>-0.5920506367314354</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3781106451549227</v>
+        <v>-0.3776376430382665</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2730666440575736</v>
+        <v>-0.2695885959166407</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.00365343690847</v>
+        <v>-10.37435680484467</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-17.43766740477267</v>
+        <v>-17.16323419006368</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.889299873919724</v>
+        <v>-7.80358348218813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.709532969924595</v>
+        <v>-1.842902872308781</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.360937862135764</v>
+        <v>-0.3687341388452759</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.4211776264090407</v>
+        <v>-0.4166114650883121</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1795051266195008</v>
+        <v>-0.1822605587712159</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.04251946979412934</v>
+        <v>-0.04505430617679943</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-18.6013032192768</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-4.98013037083393</v>
+        <v>-4.980130370833924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.6482012333398531</v>
@@ -949,7 +949,7 @@
         <v>-0.4880575683450977</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1461542753543915</v>
+        <v>-0.1461542753543913</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-18.16980907989867</v>
+        <v>-17.90236745856752</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-25.71956333181835</v>
+        <v>-25.54371170169875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-23.31991350982713</v>
+        <v>-23.30537781139423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.567806186603216</v>
+        <v>-9.410586697162866</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.763009010155142</v>
+        <v>-0.7627586823098449</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7144563955922706</v>
+        <v>-0.702884167620928</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5790828279280478</v>
+        <v>-0.5806824232673841</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2603479930843625</v>
+        <v>-0.2573872100681435</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-9.104214343748804</v>
+        <v>-9.128693292034772</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-16.1719637901802</v>
+        <v>-15.98707063434149</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-13.49520453041391</v>
+        <v>-13.0805680359226</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.2409870144431558</v>
+        <v>-0.3298959671557442</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4910372801104014</v>
+        <v>-0.5167958839631365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5155683243989717</v>
+        <v>-0.5113686263867934</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3799024866216001</v>
+        <v>-0.3765924717994497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.008699877859997143</v>
+        <v>-0.009269597233303823</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.6081529721204936</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3370218671525475</v>
+        <v>-0.3370218671525474</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.610243094258188</v>
+        <v>-9.823750001237197</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-20.60641082297177</v>
+        <v>-20.61123652467092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-25.86859604185042</v>
+        <v>-26.54495114339428</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-15.18822313477089</v>
+        <v>-14.90405233220421</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6119830526028729</v>
+        <v>-0.6159346249885137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.702077382761189</v>
+        <v>-0.7014688587909301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7000147254603095</v>
+        <v>-0.7102367851646683</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4421164498680226</v>
+        <v>-0.4318343504193294</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.9646991909670789</v>
+        <v>-1.537133571246262</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-9.438197642031328</v>
+        <v>-9.531161934679233</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-14.94415144549942</v>
+        <v>-15.17381275364855</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.268679956906522</v>
+        <v>-6.193449505353219</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.07920128052108599</v>
+        <v>-0.1224886826979896</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.3956919269905997</v>
+        <v>-0.408752256890632</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4750145760251884</v>
+        <v>-0.4868579050115169</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2209923883011325</v>
+        <v>-0.2141554493728744</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>-0.6333918870283655</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.5292169994046512</v>
+        <v>-0.5292169994046513</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-18.07557451826752</v>
+        <v>-17.90958165202324</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-19.85931040660791</v>
+        <v>-19.58963923104738</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-23.73546840548391</v>
+        <v>-23.88504805159813</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-18.88993943538993</v>
+        <v>-18.84820978952269</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6663997894602393</v>
+        <v>-0.6600125651585034</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7599694099388454</v>
+        <v>-0.7518140815818117</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7458712578614191</v>
+        <v>-0.7505955241162104</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6264327138236684</v>
+        <v>-0.628201812403183</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-6.800062020560214</v>
+        <v>-6.011602889718656</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-8.42003360754514</v>
+        <v>-8.156440099400639</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-12.22365519948657</v>
+        <v>-12.21285799257373</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-10.22198499084527</v>
+        <v>-9.904040361123815</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3163252448160955</v>
+        <v>-0.3054611926366415</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4334509116523162</v>
+        <v>-0.4305345160025497</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.4868658495472623</v>
+        <v>-0.4922181342059899</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.4070536837825279</v>
+        <v>-0.4086963779350885</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.56340959532229</v>
+        <v>-17.29519226115465</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.16715990480892</v>
+        <v>-13.84916243446247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.72433445082386</v>
+        <v>-18.83193584986003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-17.80727662317476</v>
+        <v>-18.25730491655053</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8536153704364122</v>
+        <v>-0.8562695473986521</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.7882816550909234</v>
+        <v>-0.7870625459355829</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.8757883156825409</v>
+        <v>-0.8884070659223902</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.7988521049738347</v>
+        <v>-0.7970291081833388</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.26145130606186</v>
+        <v>-6.385160799645763</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.076978156576797</v>
+        <v>-3.420941388530527</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-9.30270781649652</v>
+        <v>-8.903822977842827</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-9.85954298231187</v>
+        <v>-9.84650840001901</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.4770514064732639</v>
+        <v>-0.4607870175736103</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.2941718482077899</v>
+        <v>-0.2911043462579344</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.5590449622530684</v>
+        <v>-0.5762364315028701</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.5951012298315029</v>
+        <v>-0.589924466064746</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-13.84653619887218</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-7.695267835899299</v>
+        <v>-7.695267835899297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.4266099040227959</v>
@@ -1349,7 +1349,7 @@
         <v>-0.4272008287281406</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.2650757279183494</v>
+        <v>-0.2650757279183493</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-10.67688797453592</v>
+        <v>-10.72208112845526</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-14.5212512294094</v>
+        <v>-14.52786741350281</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-15.85504604435679</v>
+        <v>-15.84391754028512</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-9.4890446929086</v>
+        <v>-9.644397797460345</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4847488218942516</v>
+        <v>-0.4926273919098472</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5098248710882989</v>
+        <v>-0.5099276146568591</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4746174102517119</v>
+        <v>-0.4729041125943932</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3191662760258789</v>
+        <v>-0.3190725713414035</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-6.984483819972723</v>
+        <v>-7.069671633432494</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-10.39191538667952</v>
+        <v>-10.42152321884362</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-11.66120700946188</v>
+        <v>-11.78978152736621</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-5.534688710475312</v>
+        <v>-5.825740836071512</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3495363662429206</v>
+        <v>-0.3574647073888658</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3964124193181757</v>
+        <v>-0.3992632978376382</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3728657802914093</v>
+        <v>-0.3782328999894365</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2025824347547595</v>
+        <v>-0.2096975779092644</v>
       </c>
     </row>
     <row r="28">
